--- a/data/output/FV2504_FV2410/UTILMD/55241.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55241.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="209">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="209">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -770,6 +770,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U80" totalsRowShown="0">
+  <autoFilter ref="A1:U80"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1089,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4896,5 +4929,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55241.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55241.xlsx
@@ -988,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1011,6 +1011,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1019,6 +1022,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1461,7 +1467,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1825,7 +1831,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1971,7 +1977,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2173,7 +2179,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2481,7 +2487,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2681,7 +2687,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3055,7 +3061,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3363,7 +3369,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3539,26 +3545,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3567,23 +3573,23 @@
       <c r="L43" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -3767,26 +3773,26 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>177</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -3795,23 +3801,23 @@
       <c r="L47" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>177</v>
       </c>
       <c r="V47" s="6" t="s">
@@ -4005,26 +4011,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M51" s="5"/>
@@ -4042,33 +4048,33 @@
       <c r="A52" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M52" s="5"/>
@@ -4086,33 +4092,33 @@
       <c r="A53" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M53" s="5"/>
@@ -4130,31 +4136,31 @@
       <c r="A54" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M54" s="5"/>
@@ -4182,29 +4188,29 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11" t="s">
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4220,35 +4226,35 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4264,35 +4270,35 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4308,55 +4314,55 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="K59" s="6" t="s">
@@ -4365,23 +4371,23 @@
       <c r="L59" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="O59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P59" s="5"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="V59" s="6" t="s">
@@ -4565,26 +4571,26 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>182</v>
       </c>
       <c r="K63" s="6" t="s">
@@ -4593,23 +4599,23 @@
       <c r="L63" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>182</v>
       </c>
       <c r="V63" s="6" t="s">
@@ -4733,22 +4739,22 @@
       <c r="V65" s="5"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>183</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -4757,19 +4763,19 @@
       <c r="L66" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>183</v>
       </c>
       <c r="V66" s="6" t="s">
@@ -4965,7 +4971,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5165,7 +5171,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5347,48 +5353,48 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5" t="s">
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
